--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -501,6 +501,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>maio</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nenhuma ocorrencia registrada</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nenhuma diligencia realizada no periodo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Servico executado conforme contrato</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nenhum sinistro registrado no periodo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -533,6 +533,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>maio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nenhuma ocorrencia registrada</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nenhuma diligencia realizada no periodo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Servico executado conforme contrato</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nenhum sinistro registrado no periodo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -1,33 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6464BA7-3420-455E-87BD-0272EE292DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>OCORRENCIA</t>
+  </si>
+  <si>
+    <t>DILIGENCIA</t>
+  </si>
+  <si>
+    <t>AVALIACAO</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÃO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +74,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,153 +388,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CONTRATO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MES</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OCORRENCIA</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DILIGENCIA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>AVALIACAO</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>OBSERVAÇÃO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>029/2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nenhuma ocorrencia registrada</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Nenhuma diligencia realizada no periodo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Servico executado conforme contrato</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Nenhum sinistro registrado no periodo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>029/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nenhuma ocorrencia registrada</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nenhuma diligencia realizada no periodo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Servico executado conforme contrato</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nenhum sinistro registrado no periodo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>029/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Nenhuma ocorrencia registrada</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nenhuma diligencia realizada no periodo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Servico executado conforme contrato</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nenhum sinistro registrado no periodo</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -1,61 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6464BA7-3420-455E-87BD-0272EE292DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>CONTRATO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>OCORRENCIA</t>
-  </si>
-  <si>
-    <t>DILIGENCIA</t>
-  </si>
-  <si>
-    <t>AVALIACAO</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,41 +419,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CONTRATO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>OCORRENCIA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DILIGENCIA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>AVALIACAO</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>OBSERVAÇÃO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme OS 013, 014, 015, 016, 017, 018, 019, 020</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pagamento efetuado das NF 297, 298, 299, 301, 302, 303, 304 e 305</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -501,6 +501,166 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Oficio 002/06/2025 - ROO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Neste mas estive nos dias 07, 15, 22 e 29 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 70.224,30kg (metal: 312kg / papel: 61.932,30kg / plastico:10.980,00kg)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PSAU R$ 14.312,39 (CTR 014/2024). Neste mes trabalharam 13 cooperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Oficio 002/06/2025 - ROO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Neste mes estive nos dias 07, 15, 22 e 29 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 70.224,30kg (metal: 312kg / papel: 61.932,30kg / plastico:10.980,00kg)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PSAU R$ 14.312,39 (CTR 014/2024). Neste mes trabalharam 13 cooperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>001/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Oficio 0015/2025 - ROO - 04/06/2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Neste mes estive nos dias 07, 15, 22 e 29 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 54, 272 T (papel: 40,598T / plastico: 13,674T)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PSAU R$ 11.121,73 (CTR 001/2025). Neste mes trabalharam 34 cooperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>011/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sem prestação de serviço</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ordem de inicio não foi dada para o serviço</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sem prestação de serviço</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rescisão contratual está sendo avaliada </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -661,6 +661,102 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>006/2020</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Encaminhado OFICIO 051/2025, em 13/05/2025, solicitando a manifestação de anuência para encerramento do contrato.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Serviço paralisado.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Empresa não concordou com o encerramento do contrato em 16/05/2025 e solicitou reunião.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>006/2020</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Encaminhado OFICIO 051/2025, em 13/05/2025, solicitando a manifestação de anuência para encerramento do contrato.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Serviço paralisado.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Empresa não concordou com o encerramento do contrato em 16/05/2025 e solicitou reunião.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Oficio 002/2025/eta_sanear não foi respondido. Protocolo 12210.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apresentado BM 04 d0 6° termo aditivo no valor de R$ 1.143.763,48. NF 625 emitida em 19/05/2025 e paga em 20/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -757,6 +757,70 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme solicitação do SANEAR através de Ordens de Serviço</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BM 02 do 4º ADITIVO protocolizado em 27/06/2025 no valor de R$ 692.560,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BM 11 protocolizado em 23/06/2025 no valor de R$ 13.724,06 e pago em 26/06/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -821,6 +821,70 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme cronograma aprovado</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pagamento efetuado em 06/06/2025 da NF 5988 referente ao BM 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>009/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme Plano de Trabalho aprovado</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BM 13 referente ao primeiro aditivo de contrato foi protocolizado em 18/06/2025 no valor de R$ 15.000,00 e pagamento efetuado em 26/06/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -885,6 +885,338 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Nenhum serviço executado no período</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nenhuma medição apresentada no periodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>019/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Aprovada alteração de planilha atraves de aditivo sem reflexo financeiro. </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme cronograma estabelecido</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>BM 14 no valor de R$ 10.970,33 e BM 15 no valor de R$ 68.892,28 protocolizados em 04/06/2025 e pagos em 11/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>039/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Os poucos pontos instalados atualmente atendem a solicitação do SANEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>004/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vigência do contrato encerrada em 24/05/2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço executado conforme cronograma </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Não foi necessario o periodo de acompanhamento da bomba autoescorvante visto que a mesma não atingiu o seu objetivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>013/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Visita na obra em 10/06/2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Serviços executados conforme o cronograma aprovado</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A presente obra é remanescente de outro contrato e conforme relatado pela empresa fiscalizadora, o primeiro anel do costado está fora de prumo. Entao todo o costado esta com esta anomalia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Serviços executados conforme o cronograma aprovado</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BM 03 pago em 11/06/2025 através da NF 28 emitida em 05/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Serviços executados conforme o cronograma aprovado</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BM 03 no valor de R$ 141.653,39 foi protocolizado em 10/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>018/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Carta TBR 095/25 em resposta ao Oficio DIRTEC 244/2025 eferente a perfuração de novo poço e barriletes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sem serviço executado no momento</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Firmado em 17/06/2025 o 2° ADITIVO de PRAZO com vigencia entre 19/06/2025 a 18/06/2026</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Contato com a sra. Adriana da Prefeitura de ItajubaMG para verificar o contrato com a empresa Energy</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>011/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Recusa em assinar Termo de Extinção amigável</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sem diligencis</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>012/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Contrato vence em 30/07/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1217,6 +1217,88 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>006/2020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>empresa não respondeu o oficio 051/2025</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Nenhum serviço prestado periodo</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1297,7 +1297,38 @@
           <t>Nenhum serviço prestado periodo</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordens de Serviço</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Pagamento da 5ª medição do 6° aditivo em 13/06/2025, referente ao mês de Maio/2025, NF 633, no valor de R$ 1.101.668,10</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1330,6 +1330,228 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>058/2021</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>- Vigência do contrato encerrada</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>O terceiro termo aditivo teve a vigencia encerrada em 21/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>011/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>013/2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>014/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>018/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>021/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>011/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sem diligiencias</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Teste de figura</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1550,7 +1550,38 @@
           <t>Teste de figura</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Terceira medição do 4º aditivo protocolizada em 31/07/2025, no valor de R$ 762.343,75</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1583,6 +1583,38 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme cronograma aprovado</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BM 11 protocolizado em 02/07/2025 no valor de R$ 291.762,29  e BM 12 protocolizado em 15/07/2025 no valor de R$ 134.604,86</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1615,6 +1615,194 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme demanda do setor de perdas</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Empresa recebeu solicitação para executar duas caixas de registro na saida do reservatorio da UFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>039/2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Os poucos pontos instalados atualmente atendem a solicitação do SANEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BM 12 protocolizado em 02/07/2025 no valor de R$ 90.632,94 e pago em 08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>009/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme plano de trabalho aprovado</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BM 14 referente ao primeiro aditivo de contrato foi protocolizado em 14/07/2025 no valor de R$ 15.000,00 e pagamento efetuado em 25/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>013/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BM 05 protocolizado em 11/07/2025 no valor de R$ 56.479,88 e encaminhado para CEF para emissão do RAE.
+Emitido RAE 133 em 28/07/2025 com glosa de R$ 5.000,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BM 04 foi pago em 10/07/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1803,6 +1803,129 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme cronograma aprovado</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BM 04 protocolizado em 01/07/2025 no valor de R$ 15.552,49 e pago em 08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Pagamentos  em 08/07/2025 as NFs 313,314 e 315 referente as OS 029, 027 e 028 respectivamente</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>012/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>O contrato venceu em 30/07/2025 e não houve solicitação de prorrogação de prazo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -1926,6 +1926,97 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>011/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Empresa encaminhou OFICIO em 07/07/2025 manifestando discordancia com a rescisão contratual e pleiteando o pagamento de serviços executados</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sem diligencias pois o fiscal teve acesso ao OFICIO no dia 31/07/2025</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sem serviços prestados</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Deverá ser verificado quais os serviços que a contratante pleiteia visto que não houve ordem de inicio dos serviços</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>018/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oficio DIRTEC 332/2025 datado de 11/07/2025 encaminha para empresa para solução das pendências </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sem serviços prestados</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sem serviços prestados</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Aguardando a indicação de nova área para instalação das placas solares</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2017,6 +2017,38 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>039/2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Os poucos pontos instalados atualmente atendem a solicitação do SANEAR</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Previsto para 08/09/2025 uma reuniao com representante da empresa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2049,6 +2049,134 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Pagamento em 05/08/2025 da NF 1003 emitida em 04/08/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme demanda do setor de perdas</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Nenhum serviço executado no periodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BM 13 protocolizado em 18/08/2025 no valor de R$ 70.569,59 e pago em 28/08/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BM 05 protocolizado em 18/08/2025 no valor de R$ 117.309,50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2177,6 +2177,70 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>018/2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Em 08/08/2025 a empresa SM7 respondeu o oficio DIRTEC 332 , através da Carta TBR 131/2025 com base me reunião in loco realizada em 05/08/2025</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Serviço pausado</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>As partes, SANEAR e SM7, firmaram acordo extrajudicial em 25/08/2025 e encaminhado atraves do oficio DIRTEC 432/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BM 13 protocolizado em 12/08/2025 no valor de R$ 295.980,30 e pago em 26/08/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2241,6 +2241,38 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>009/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme plano de trabalho aprovado</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ultima medição protocolizada em 12/08/2025 e pagamento efetuado em 28/08/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2273,6 +2273,40 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>011/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sem serviço prestado no periodo</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Em 19/08/2025 foi encaminhado, via email,  a MANIFESTAÇÃO DEFINITIVA SOBRE A EXTINÇÃO DO CONTRATO
+ADMINISTRATIVO No 011/2024 E IMPROCEDÊNCIA DAS ALEGAÇÕES DE
+PAGAMENTO2024.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2307,6 +2307,70 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Medição emitida neste periodo e respectiva nota fiscal não foi atestada pelo fiscal de contrato</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sem serviço prestado</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Aguardando a indicação de nova área para instalação das placas solares</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2371,6 +2371,201 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>009/2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Obras paralisadas, com atraso</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Obras paralisadas, com atraso</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vila toscana, poço operando, necessita de adequações. Poço almoxarifado - obra paralisada</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>006/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>- Encaminhamos oficios DIRTEC 161/2025 e DIRTEC 188/2025</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Dentro do cronograma do contrato</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>008/2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>017/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>- Faltam terminar os poços do Alto da Fé e do Complexo Carimã</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Dentro do cronograma do contrato</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Todos os trabalhadores utilizam equipamentos de proteção individual</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Oficio n° 029/09/2025</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Neste mes estive nos dias 22 e 28 no local de reciclagem</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 91.094kg (metal: 2.091kg / aluminio:183kg/papel: 58.460kg / plastico:30.430kg)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>PSAU R$ 18.668,19 (CTR 014/2024). Neste mes trabalharam 11 cooperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>003/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1 - poço Razia: Desceu a bomba cm 3 trabalhadores
+2 - poço Marajá: Falta descer a bomba; Falta o SANEAR realizar o rebaixamento de energia
+3 - poço Resistencia : Já está em funcionamento
+4 - poço Primavera: Falta descer a bomba; Falta o SANEAR realizar o rebaixamento de energia</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Obra em atraso</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2566,6 +2566,38 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Pagamento em 04/09/2025 da NF 1042 emitida em 03/09/2025 referente a medição no valor de R$ 571.025,05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2598,6 +2598,198 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme demanda do setor de perdas</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Nenhum serviço executado no periodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>039/2022</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Os poucos pontos instalados atualmente atendem a solicitação do SANEAR</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Reuniâo com reprensentante Farias da Sagatech em 15/09/2025  junto ao João Manoel</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BM 14 protocolizado em 17/09/2025 no valor de R$ 91.654,46 e pago em 19/09/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Em 15/09/2025 chegaram os suporte dos decantadores em aço inox. A empresa executou o trabalho de colocacao dos suportes  mas nao houve medicao</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Sem serviço prestado no periodo</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SANEAR solicitou a prefeitura cessão de área para instalação da planta inteira da usina fotovoltaica</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>013/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Nenhum BM apresentando no periodo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2790,6 +2790,125 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>BM 06 protocolizado em 10/09/2025 no valor de 290.639,32 e pago em 25/09/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BM 05 protocolizado em 10/09/2025 no valor de 20.460,00 e pago em 19/09/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -2907,7 +2907,135 @@
           <t>Serviço prestado conforme contrato</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>017/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Falta perfurar os poços Alto da Fé e do Complexo Carimã</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>003/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1 - Poço Razia: feito barrilete que liga o poço a caixa d´agua;
+2 - Realizar o rebaixamento de energia</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>008/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Não  houve</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>009/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Não  houve</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Obras paralisadas</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Obras paralisadas</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Vila toscana, poço operando, necessita de adequações. Poço almoxarifado - obra paralisada</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3037,6 +3037,70 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>006/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Não  houve</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>- Encaminhamos oficios DIRTEC 161/2025 e DIRTEC 188/2025</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Dentro do cronograma do contrato</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>001/2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Não  houve</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 04, 12 e 25 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 75, 252 T (metal: 2,747T/papel: 52,613T / plástico: 13,821T/vidro:6,070T)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PSAU R$ 15.421,23 (CTR 001/2025). Neste mes trabalharam 24 cooperados</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3101,6 +3101,38 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Aguardando certidão negativa da coopercicla para renovar aditivo</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 5, 12 e 17 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Esperando aditivar o contrato</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Neste mês, dia 15, técnicas do Sebrae estiveram na Coopercicla, realizando treinamento de segurança aos 11 cooperados</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3133,6 +3133,38 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordens de Serviços emitidas</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Pagamento em 15/10/2025 da NF 1060 emitida em 10/10/2025 referente a medição no valor de R$ 611.283,40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3165,6 +3165,434 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme demanda do setor de perdas</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Encaminhado em 15/10/2025, o oficio DIRTEC 538/2025 solicitando a execução de diversos serviços</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>BM 15 protocolizado em 02/10/2025 no valor de R$ 80.671,77 e pago em 07/10/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>BM 14 protocolizado em 01/10/2025 no valor de R$ 316.000,00 e pago em 15/10/2025. BM 15 protocolizado em 29/10/2025 no valor de 804.000,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>039/2022</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Os poucos pontos instalados atualmente atendem a solicitação do SANEAR</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Encontro com representantes da empresa na Feira de Saneamento. Servidores participaram de curso realizado pela empresa</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>013/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empresa fiscalizadora enviou oficio CAR/60/RONDO/2025 sobre ocorridos durante o teste de estanqueidade. </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>BM 06 apresentando em 06/10/2025 no valor de R$ 8.367,60 (recurso federal) e BM 07 apresentado em  20/10/2025 no valor de 4.375,47 (recursos proprios)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empresa fiscalizadora enviou oficio CAR/60/RONDO/2025 sobre ocorridos durante o teste de estanqueidade. </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Nenhum BM protocolizado no periodo. A obra estava aguardando definições sobre o chumbamento do tanque na base.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empresa fiscalizadora enviou oficio CAR/60/RONDO/2025 sobre ocorridos durante o teste de estanqueidade. </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Nenhum BM protocolizado no periodo. A obra segue o cronograma com a demolicao da antiga agencia e desmontagem dos barriletes do poço desativado</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empresa fiscalizadora enviou oficio CAR/60/RONDO/2025 sobre ocorridos durante o teste de estanqueidade. </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Pagamento da medicao n° 09 do 6° aditivo no valor de R$ 1.151.569,57 referente ao mes de Setembro/2025. NF não atestada pelo fiscal de contrato</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Pagamento da medicao n° 09 do 6° aditivo no valor de R$ 1.151.569,57 referente ao mes de Setembro/2025. NF não atestada pelo fiscal de contrato</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>006/2020</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Nenhum serviço prestado no periodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Nenhum serviço prestado no periodo</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>SANEAR solicitou a prefeitura cessão de área para instalação da planta inteira da usina fotovoltaica</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3593,6 +3593,38 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Protocolada medicao n° 10 do 6° aditivo no valor de R$ 1.157.977,15 referente ao mes de Outubo/2025. NF 675 emitida em 21/11/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3625,6 +3625,34 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>011/2024</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Memorando juridico 129/2025 de 28/11/2025 reiterando solicitação de análise técnica sobre oficio encaminhado pela empresa.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Sem serviço prestado no período</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3651,7 +3651,38 @@
           <t>Sem serviço prestado no período</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordens de Serviços emitidas</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Pagamento em 07/11/2025 da NF 1070 emitida em 05/11/2025 referente a medição no valor de R$ 658.021,80</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -3684,6 +3684,641 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme demanda do setor de perdas</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Protocolado BM 19 em 11/11/2025 no valor de R$ 27.445,97 e pago em 25/11/2025 sob a NF 317</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>039/2022</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Os poucos pontos instalados atualmente atendem a solicitação do SANEAR</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>A vigencia do contrato venceu em 27/11/2025 mas ainda não houve solicitação de prorrogacao de prazo vindo da empresa</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BM 16 protocolizado em 11/11/2025 no valor de R$ 14.885,70 e pago em 25/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>BM 15 no valor de R$ 804.000,00 pago em 13/11/2025 e BM 16  no valor de R$ 686.449,34 protocolizado em 27/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>011/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Sem serviço prestado no período</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Nenhum serviço prestado no periodo</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SANEAR solicitou a prefeitura cessão de área para instalação da planta inteira da usina fotovoltaica</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>010/2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Nenhum serviço prestado no periodo</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>SANEAR solicitou a prefeitura cessão de área para instalação da planta inteira da usina fotovoltaica</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>013/2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Nenhum serviço prestado no periodo</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NF 36 emitida em 12/11/2025 referente ao BM 06 foi paga em 28/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Nenhum BM protocolizado no periodo. A obra segue o cronograma com a demolicao do reservatorio em concreto</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Encaminhado oficio DIRTEC 310/2025 solicitando a paralisação da obra EM 18/11/2025. Encaminhado oficio DIRTEC 612/2025 oficializando a RESCISAO UNILATERAL DO CONTRATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Contrato deverá ser prorrogado devido ao saldo residual existente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em 17/11/2025 foi publicado PREGAO ELETRONICO para aquisição de objeto referente a este contrato.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>018/2023</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Serviço pausado</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>BM 06 protocolizado em 18/11/2025 no valor de R$ 162.450,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>009/2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Poço do condominio Vila Toscana necessita de algumas adequações.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Obras paralisadas</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Obras paralisadas</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Vila toscana, poço operando, necessita de adequações. Poço almoxarifado - obra paralisada</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>003/2024</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No assentamento Primavera, segundo a empresa falta o SANEAR realizar o rebaixamento de energia</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>A empresa apresentou os documentos exigidos em legislação e todos os 3 funcionarios</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Alguns dos poços que estão neste contrato estão em atraso</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>017/2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Falta perfurar os poços Alto da Fé e do Complexo Carimã</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>008/2023</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>006/2024</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Estamos no aguardo dos documentos solicitados atraves dos memorandos</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Dentro do cronograma do contrato</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>001/2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O presidente da cooperativa Nova Esperança solicita o caminhão F-4000 para a coleta noturna. Protocolo n° 14.714</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 03, 15, 22 e 29 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 94, 98 T (metal: 2,65T/papel: 77,6168T / plástico: 10,063T/vidro:4,65T)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>PSAU R$ 20.817,72 (CTR 001/2025). Neste mês trabalharam 21 cooperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Não ocorreu</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 03, 15, 22 e 29 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 60, 5372 T (eletronico:2,3T/aluminio:0,8535T/papel: 43,044T / plástico: 5,34T/vidro:9,0T)</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Trabalharam 11 cooperados</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
@@ -4319,6 +4319,294 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>006/2024</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Estamos no aguardo dos documentos solicitados atraves dos memorandos</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Dentro do cronograma do contrato</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>008/2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Serviços paralisados</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>009/2023</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Poço do condominio Vila Toscana necessita de algumas adequações.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Obras paralisados</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Obras paralisados</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Vila toscana, poço operando, necessita de adequações. Poço almoxarifado - obra paralisada</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Não ocorreu</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 06, 13, e 19 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 68, 2823 T (eletronico:12,3T/papel: 32,92T / plástico: 35,54T/vidro:9,0T)</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Trabalharam 15 cooperados. PSAU R$ 13.993,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>003/2024</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No assentamento Primavera, segundo a empresa falta o SANEAR realizar o rebaixamento de energia</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A empresa apresentou os documentos exigidos em legislação e todos os 3 funcionarios utlizam os equipamentos de proteção individual</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Alguns dos poços que estão neste contrato estão em atraso. São execuções.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>017/2024</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Falta perfurar os poços Alto da Fé e do Complexo Carimã</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Obras em atraso</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Este contrato vemce em 17/12/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>001/2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Não houve</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 06, 13 e 19 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 75, 69 T (metal: 3,73T/papel: 62,7686T / plástico: 9,1914T)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>PSAU R$ 15.511,40.  Neste mês trabalharam 21 cooperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Não ocorreu</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 06, 13 e 19 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 68,2823 T (eletronico: 12,30kg/papel: 32,92T / plástico: 35,35T)</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Neste mês trabalharam 15 cooperados. PSAU R$ 13.993,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>014/2024</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Não ocorreu</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Neste mês estive nos dias 06, 13 e 19 no local da reciclagem</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Mat. reciclado = 68,2823 T (eletronico: 12,30kg/papel: 32,92T / plástico: 35,35T)</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Neste mês trabalharam 15 cooperados. PSAU R$ 13.993,26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB3777A-2F19-4903-B416-09FCC9C51C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AFAD8-B060-4E8F-BA4B-AC40837BE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="D141" sqref="D141"/>
@@ -4831,6 +4831,166 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>BM 07 protocolizado em 02/12/2025 no valor de R$ 293.201,05 e pago em 19/12/2025 através da NF  316</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>028/2024</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordem de Serviço aberta pelo SANEAR</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empresa solicitou a prorrogacao de prazo antes do vencimento do contrato. </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>029/2024</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme contrato</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>A vigencia do contrato foi encerrada em 25/12/2025. O contrato  019/2025 vai substituir este.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>047/2019</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sem ocorrencias</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme ordens de serviço</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Protocolada medicao n° 11 do 6° aditivo no valor de R$ 1.173.996,11 referente ao mes de Novembro/2025. NF 684 emitida em 17/12/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Termo de Rescisao Consensual elaborado em 29/12/2025</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encaminhado Termo de Rescisao Consensual de 29/12/20225 para empresa via whatsapp e email </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio_novo.xlsx
+++ b/relatorio_novo.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="D141" sqref="D141"/>
@@ -4991,6 +4991,198 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>009/2022</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme Ordens de Serviços emitidas</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Pagamento em 28/01/2026 da NF 1099 emitida em 22/01/2026 referente a medição no valor de R$ 925.792,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>034/2022</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Serviço executado conforme demanda do setor de perdas</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Nenhum serviço foi executado ou medido no periodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>028/2023</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>BM 19 protocolizado em 19/01/2026 no valor de R$ 18.614,20.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>BM 08 protocolizado em 22/01/2026 no valor de R$ 238.489,65.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sem ocorrências</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviço prestado conforme solicitação do SANEAR </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>BM 17 protocolizado em 08/01/2026 no valor de R$ 423.150,00 pago em 28/01/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>024/2024</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Termo de Rescisao Consensual  assinado em 14/01/2026 por  representante legal da empresa</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sem diligencias</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Serviço prestado conforme cronograma</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obra finalizada devido a adaptações de projeto que iriam culminar em aditivo maior que o percentual legalmente permitido </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
